--- a/nif_reader_4/src/btpy/res/name_male_data.xlsx
+++ b/nif_reader_4/src/btpy/res/name_male_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="5867"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1181">
   <si>
     <t>russian</t>
   </si>
@@ -2426,6 +2426,24 @@
     <t>Zoel</t>
   </si>
   <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Americo</t>
+  </si>
+  <si>
+    <t>Severo</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>Pelayo</t>
+  </si>
+  <si>
     <t>turkish</t>
   </si>
   <si>
@@ -2783,6 +2801,222 @@
     <t>Tanjiro</t>
   </si>
   <si>
+    <t>Katsushika</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Nijiro</t>
+  </si>
+  <si>
+    <t>Yoshiki</t>
+  </si>
+  <si>
+    <t>Hayao</t>
+  </si>
+  <si>
+    <t>Shigeru</t>
+  </si>
+  <si>
+    <t>Yoko</t>
+  </si>
+  <si>
+    <t>Akihito</t>
+  </si>
+  <si>
+    <t>Hirohito</t>
+  </si>
+  <si>
+    <t>Akira</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
+    <t>Shinz</t>
+  </si>
+  <si>
+    <t>Kae</t>
+  </si>
+  <si>
+    <t>Kento</t>
+  </si>
+  <si>
+    <t>Kendo</t>
+  </si>
+  <si>
+    <t>Hiroshi</t>
+  </si>
+  <si>
+    <t>Korin</t>
+  </si>
+  <si>
+    <t>Takashi</t>
+  </si>
+  <si>
+    <t>Kakashi</t>
+  </si>
+  <si>
+    <t>Yoshimoto</t>
+  </si>
+  <si>
+    <t>Kazuo</t>
+  </si>
+  <si>
+    <t>Shinro</t>
+  </si>
+  <si>
+    <t>Hiroaki</t>
+  </si>
+  <si>
+    <t>Toshio</t>
+  </si>
+  <si>
+    <t>Monzo</t>
+  </si>
+  <si>
+    <t>Masafumi</t>
+  </si>
+  <si>
+    <t>Kosaku</t>
+  </si>
+  <si>
+    <t>Boshiro</t>
+  </si>
+  <si>
+    <t>Enomoto</t>
+  </si>
+  <si>
+    <t>Inoue</t>
+  </si>
+  <si>
+    <t>Hikojiro</t>
+  </si>
+  <si>
+    <t>Takatsugu</t>
+  </si>
+  <si>
+    <t>Kabayama</t>
+  </si>
+  <si>
+    <t>Kakuji</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Keiji</t>
+  </si>
+  <si>
+    <t>Mineichi</t>
+  </si>
+  <si>
+    <t>Takeo</t>
+  </si>
+  <si>
+    <t>Ryu</t>
+  </si>
+  <si>
+    <t>Ryunosuke</t>
+  </si>
+  <si>
+    <t>Gunichi</t>
+  </si>
+  <si>
+    <t>Chuichi</t>
+  </si>
+  <si>
+    <t>Shoji</t>
+  </si>
+  <si>
+    <t>Kondo</t>
+  </si>
+  <si>
+    <t>Jisaku</t>
+  </si>
+  <si>
+    <t>Keisuke</t>
+  </si>
+  <si>
+    <t>Takijiro</t>
+  </si>
+  <si>
+    <t>Jisaburo</t>
+  </si>
+  <si>
+    <t>Sanemi</t>
+  </si>
+  <si>
+    <t>Inosuke</t>
+  </si>
+  <si>
+    <t>Giyu</t>
+  </si>
+  <si>
+    <t>Zenitsu</t>
+  </si>
+  <si>
+    <t>Tokito</t>
+  </si>
+  <si>
+    <t>Akaza</t>
+  </si>
+  <si>
+    <t>Genya</t>
+  </si>
+  <si>
+    <t>Muzan</t>
+  </si>
+  <si>
+    <t>Kyojuro</t>
+  </si>
+  <si>
+    <t>Obanai</t>
+  </si>
+  <si>
+    <t>Sakonji</t>
+  </si>
+  <si>
+    <t>Neji</t>
+  </si>
+  <si>
+    <t>Shikamaru</t>
+  </si>
+  <si>
+    <t>Nagato</t>
+  </si>
+  <si>
+    <t>Obito</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Kiba</t>
+  </si>
+  <si>
+    <t>Miyamoto</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Shinmen</t>
+  </si>
+  <si>
+    <t>Musashi</t>
+  </si>
+  <si>
+    <t>Shiro</t>
+  </si>
+  <si>
+    <t>Taira</t>
+  </si>
+  <si>
+    <t>Utagawa</t>
+  </si>
+  <si>
     <t>polinesian</t>
   </si>
   <si>
@@ -3084,6 +3318,258 @@
   </si>
   <si>
     <t>Wojciech</t>
+  </si>
+  <si>
+    <t>hebrew</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Esdras</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>Barack</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Carmelo</t>
+  </si>
+  <si>
+    <t>Zev</t>
+  </si>
+  <si>
+    <t>Baruc</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Timoteo</t>
+  </si>
+  <si>
+    <t>Abba</t>
+  </si>
+  <si>
+    <t>Aharon</t>
+  </si>
+  <si>
+    <t>Akiva</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alon</t>
+  </si>
+  <si>
+    <t>Amram</t>
+  </si>
+  <si>
+    <t>Arie</t>
+  </si>
+  <si>
+    <t>Avigdor</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>Azriel</t>
+  </si>
+  <si>
+    <t>Baruj</t>
+  </si>
+  <si>
+    <t>Ben Tzion</t>
+  </si>
+  <si>
+    <t>Berel</t>
+  </si>
+  <si>
+    <t>Betzalel</t>
+  </si>
+  <si>
+    <t>Boaz</t>
+  </si>
+  <si>
+    <t>Calev</t>
+  </si>
+  <si>
+    <t>Carmi</t>
+  </si>
+  <si>
+    <t>Doron</t>
+  </si>
+  <si>
+    <t>Ehud</t>
+  </si>
+  <si>
+    <t>Dov</t>
+  </si>
+  <si>
+    <t>Eitan</t>
+  </si>
+  <si>
+    <t>Elazar</t>
+  </si>
+  <si>
+    <t>Eljanan</t>
+  </si>
+  <si>
+    <t>Eldad</t>
+  </si>
+  <si>
+    <t>Elimelej</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>Eliakim</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Faivel</t>
+  </si>
+  <si>
+    <t>Fishel</t>
+  </si>
+  <si>
+    <t>Gad</t>
+  </si>
+  <si>
+    <t>Gamliel</t>
+  </si>
+  <si>
+    <t>Gershon</t>
+  </si>
+  <si>
+    <t>Gidon</t>
+  </si>
+  <si>
+    <t>Hillel</t>
+  </si>
+  <si>
+    <t>Hirch</t>
+  </si>
+  <si>
+    <t>Lerajmiel</t>
+  </si>
+  <si>
+    <t>Ilan</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Itsjak</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Issur</t>
+  </si>
+  <si>
+    <t>Itamar</t>
+  </si>
+  <si>
+    <t>Janan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Janoj</t>
+  </si>
+  <si>
+    <t>Kalman</t>
+  </si>
+  <si>
+    <t>Kalonimos</t>
+  </si>
+  <si>
+    <t>Leib</t>
+  </si>
+  <si>
+    <t>Lior</t>
+  </si>
+  <si>
+    <t>Mendel</t>
+  </si>
+  <si>
+    <t>Menashe</t>
+  </si>
+  <si>
+    <t>Mijael</t>
+  </si>
+  <si>
+    <t>Mordejai</t>
+  </si>
+  <si>
+    <t>Natanel</t>
+  </si>
+  <si>
+    <t>Nejemia</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Shabtai</t>
+  </si>
+  <si>
+    <t>Shaul</t>
+  </si>
+  <si>
+    <t>Shalom</t>
+  </si>
+  <si>
+    <t>Shimon</t>
+  </si>
+  <si>
+    <t>Tamir</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Uziel</t>
+  </si>
+  <si>
+    <t>Yair</t>
+  </si>
+  <si>
+    <t>Yoel</t>
+  </si>
+  <si>
+    <t>Zalman</t>
   </si>
 </sst>
 </file>
@@ -3751,7 +4237,14 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4027,15 +4520,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:GS16"/>
+  <dimension ref="A2:GY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="CE16" sqref="CE16"/>
+    <sheetView tabSelected="1" topLeftCell="CW4" workbookViewId="0">
+      <selection activeCell="DD13" sqref="DD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.8888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
+    <col min="1" max="16384" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:58">
@@ -6040,7 +6533,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:201">
+    <row r="10" spans="1:207">
       <c r="A10" t="s">
         <v>623</v>
       </c>
@@ -6643,669 +7136,903 @@
       </c>
       <c r="GS10" t="s">
         <v>798</v>
+      </c>
+      <c r="GT10" t="s">
+        <v>799</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>800</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>801</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>802</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>803</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C11" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D11" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E11" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="G11" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="H11" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="I11" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="J11" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="K11" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="L11" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="M11" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="N11" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="O11" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="P11" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="Q11" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="R11" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="S11" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="T11" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="U11" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="V11" t="s">
         <v>214</v>
       </c>
       <c r="W11" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="X11" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="Y11" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>832</v>
+      </c>
+      <c r="AD11" t="s">
         <v>822</v>
       </c>
-      <c r="Z11" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>825</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>826</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>816</v>
-      </c>
       <c r="AE11" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C12" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E12" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F12" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="G12" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="H12" t="s">
+        <v>841</v>
+      </c>
+      <c r="I12" t="s">
+        <v>842</v>
+      </c>
+      <c r="J12" t="s">
+        <v>843</v>
+      </c>
+      <c r="K12" t="s">
+        <v>844</v>
+      </c>
+      <c r="L12" t="s">
+        <v>845</v>
+      </c>
+      <c r="M12" t="s">
+        <v>846</v>
+      </c>
+      <c r="N12" t="s">
+        <v>847</v>
+      </c>
+      <c r="O12" t="s">
+        <v>848</v>
+      </c>
+      <c r="P12" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>850</v>
+      </c>
+      <c r="R12" t="s">
+        <v>851</v>
+      </c>
+      <c r="S12" t="s">
+        <v>852</v>
+      </c>
+      <c r="T12" t="s">
+        <v>853</v>
+      </c>
+      <c r="U12" t="s">
+        <v>854</v>
+      </c>
+      <c r="V12" t="s">
+        <v>855</v>
+      </c>
+      <c r="W12" t="s">
+        <v>856</v>
+      </c>
+      <c r="X12" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>860</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>862</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>863</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>864</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>865</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>866</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>836</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>869</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>870</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>871</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>872</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>874</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>875</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>876</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>877</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU12" t="s">
         <v>835</v>
       </c>
-      <c r="I12" t="s">
-        <v>836</v>
-      </c>
-      <c r="J12" t="s">
-        <v>837</v>
-      </c>
-      <c r="K12" t="s">
-        <v>838</v>
-      </c>
-      <c r="L12" t="s">
-        <v>839</v>
-      </c>
-      <c r="M12" t="s">
-        <v>840</v>
-      </c>
-      <c r="N12" t="s">
-        <v>841</v>
-      </c>
-      <c r="O12" t="s">
-        <v>842</v>
-      </c>
-      <c r="P12" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>844</v>
-      </c>
-      <c r="R12" t="s">
-        <v>845</v>
-      </c>
-      <c r="S12" t="s">
-        <v>846</v>
-      </c>
-      <c r="T12" t="s">
-        <v>847</v>
-      </c>
-      <c r="U12" t="s">
-        <v>848</v>
-      </c>
-      <c r="V12" t="s">
-        <v>849</v>
-      </c>
-      <c r="W12" t="s">
-        <v>850</v>
-      </c>
-      <c r="X12" t="s">
-        <v>851</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>852</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>853</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>857</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>858</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>859</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>860</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AV12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>880</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>881</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>882</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>883</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>884</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>885</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>886</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>887</v>
+      </c>
+      <c r="BE12" t="s">
         <v>861</v>
       </c>
-      <c r="AI12" t="s">
-        <v>830</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>862</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>863</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>864</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>865</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>866</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>867</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>868</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>869</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>870</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>871</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>872</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>829</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>873</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>874</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>875</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>876</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>877</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>878</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>879</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>880</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>881</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>855</v>
-      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:108">
       <c r="A13" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B13" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C13" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D13" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E13" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="F13" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="G13" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H13" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="I13" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="J13" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="K13" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="L13" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="M13" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="N13" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="O13" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="P13" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="Q13" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="R13" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="S13" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="T13" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="U13" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="V13" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="W13" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="X13" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Y13" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="Z13" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="AA13" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="AB13" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="AC13" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="AD13" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="AE13" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="AF13" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="AG13" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="AH13" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="AI13" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="AJ13" t="s">
-        <v>917</v>
+        <v>923</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>924</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>926</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>927</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>928</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>929</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>930</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>931</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>932</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>933</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>934</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>935</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>936</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>937</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>938</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>939</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>940</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>942</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>943</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>944</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>945</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>946</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>947</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>948</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>949</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>950</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>951</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>952</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>953</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>954</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>955</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>956</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>957</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>958</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>959</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>960</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>961</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>962</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>963</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>964</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>965</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>966</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>967</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>968</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>969</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>970</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>971</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>972</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>973</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>974</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>975</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>976</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>977</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>978</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>979</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>980</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>981</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>982</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>983</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>984</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>985</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>986</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>987</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>988</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>989</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>990</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>991</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>992</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>993</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>994</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>918</v>
+        <v>996</v>
       </c>
       <c r="B14" t="s">
-        <v>919</v>
+        <v>997</v>
       </c>
       <c r="C14" t="s">
-        <v>920</v>
+        <v>998</v>
       </c>
       <c r="D14" t="s">
-        <v>921</v>
+        <v>999</v>
       </c>
       <c r="E14" t="s">
-        <v>922</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>923</v>
+        <v>1001</v>
       </c>
       <c r="G14" t="s">
-        <v>924</v>
+        <v>1002</v>
       </c>
       <c r="H14" t="s">
-        <v>925</v>
+        <v>1003</v>
       </c>
       <c r="I14" t="s">
-        <v>926</v>
+        <v>1004</v>
       </c>
       <c r="J14" t="s">
-        <v>927</v>
+        <v>1005</v>
       </c>
       <c r="K14" t="s">
-        <v>928</v>
+        <v>1006</v>
       </c>
       <c r="L14" t="s">
-        <v>929</v>
+        <v>1007</v>
       </c>
       <c r="M14" t="s">
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="N14" t="s">
-        <v>931</v>
+        <v>1009</v>
       </c>
       <c r="O14" t="s">
-        <v>932</v>
+        <v>1010</v>
       </c>
       <c r="P14" t="s">
-        <v>933</v>
+        <v>1011</v>
       </c>
       <c r="Q14" t="s">
-        <v>934</v>
+        <v>1012</v>
       </c>
       <c r="R14" t="s">
-        <v>935</v>
+        <v>1013</v>
       </c>
       <c r="S14" t="s">
-        <v>936</v>
+        <v>1014</v>
       </c>
       <c r="T14" t="s">
-        <v>937</v>
+        <v>1015</v>
       </c>
       <c r="U14" t="s">
-        <v>938</v>
+        <v>1016</v>
       </c>
       <c r="V14" t="s">
-        <v>939</v>
+        <v>1017</v>
       </c>
       <c r="W14" t="s">
-        <v>940</v>
+        <v>1018</v>
       </c>
       <c r="X14" t="s">
-        <v>941</v>
+        <v>1019</v>
       </c>
       <c r="Y14" t="s">
-        <v>942</v>
+        <v>1020</v>
       </c>
       <c r="Z14" t="s">
-        <v>943</v>
+        <v>1021</v>
       </c>
       <c r="AA14" t="s">
-        <v>944</v>
+        <v>1022</v>
       </c>
       <c r="AB14" t="s">
-        <v>945</v>
+        <v>1023</v>
       </c>
       <c r="AC14" t="s">
-        <v>946</v>
+        <v>1024</v>
       </c>
       <c r="AD14" t="s">
-        <v>947</v>
+        <v>1025</v>
       </c>
       <c r="AE14" t="s">
-        <v>948</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>949</v>
+        <v>1027</v>
       </c>
       <c r="B15" t="s">
-        <v>950</v>
+        <v>1028</v>
       </c>
       <c r="C15" t="s">
-        <v>951</v>
+        <v>1029</v>
       </c>
       <c r="D15" t="s">
-        <v>952</v>
+        <v>1030</v>
       </c>
       <c r="E15" t="s">
-        <v>953</v>
+        <v>1031</v>
       </c>
       <c r="F15" t="s">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>954</v>
+        <v>1032</v>
       </c>
       <c r="H15" t="s">
-        <v>955</v>
+        <v>1033</v>
       </c>
       <c r="I15" t="s">
-        <v>956</v>
+        <v>1034</v>
       </c>
       <c r="J15" t="s">
-        <v>957</v>
+        <v>1035</v>
       </c>
       <c r="K15" t="s">
-        <v>958</v>
+        <v>1036</v>
       </c>
       <c r="L15" t="s">
-        <v>959</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:83">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>1038</v>
       </c>
       <c r="B16" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H16" t="s">
         <v>813</v>
       </c>
-      <c r="D16" t="s">
-        <v>961</v>
-      </c>
-      <c r="E16" t="s">
-        <v>962</v>
-      </c>
-      <c r="F16" t="s">
-        <v>963</v>
-      </c>
-      <c r="G16" t="s">
-        <v>964</v>
-      </c>
-      <c r="H16" t="s">
-        <v>807</v>
-      </c>
       <c r="I16" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="J16" t="s">
-        <v>966</v>
+        <v>1044</v>
       </c>
       <c r="K16" t="s">
-        <v>967</v>
+        <v>1045</v>
       </c>
       <c r="L16" t="s">
-        <v>968</v>
+        <v>1046</v>
       </c>
       <c r="M16" t="s">
-        <v>969</v>
+        <v>1047</v>
       </c>
       <c r="N16" t="s">
         <v>664</v>
       </c>
       <c r="O16" t="s">
-        <v>970</v>
+        <v>1048</v>
       </c>
       <c r="P16" t="s">
-        <v>971</v>
+        <v>1049</v>
       </c>
       <c r="Q16" t="s">
         <v>334</v>
       </c>
       <c r="R16" t="s">
-        <v>972</v>
+        <v>1050</v>
       </c>
       <c r="S16" t="s">
-        <v>973</v>
+        <v>1051</v>
       </c>
       <c r="T16" t="s">
-        <v>974</v>
+        <v>1052</v>
       </c>
       <c r="U16" t="s">
-        <v>975</v>
+        <v>1053</v>
       </c>
       <c r="V16" t="s">
         <v>266</v>
       </c>
       <c r="W16" t="s">
-        <v>976</v>
+        <v>1054</v>
       </c>
       <c r="X16" t="s">
-        <v>977</v>
+        <v>1055</v>
       </c>
       <c r="Y16" t="s">
-        <v>978</v>
+        <v>1056</v>
       </c>
       <c r="Z16" t="s">
-        <v>979</v>
+        <v>1057</v>
       </c>
       <c r="AA16" t="s">
         <v>634</v>
       </c>
       <c r="AB16" t="s">
-        <v>980</v>
+        <v>1058</v>
       </c>
       <c r="AC16" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="AD16" t="s">
-        <v>981</v>
+        <v>1059</v>
       </c>
       <c r="AE16" t="s">
-        <v>982</v>
+        <v>1060</v>
       </c>
       <c r="AF16" t="s">
-        <v>983</v>
+        <v>1061</v>
       </c>
       <c r="AG16" t="s">
-        <v>984</v>
+        <v>1062</v>
       </c>
       <c r="AH16" t="s">
-        <v>985</v>
+        <v>1063</v>
       </c>
       <c r="AI16" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="AJ16" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="AK16" t="s">
-        <v>986</v>
+        <v>1064</v>
       </c>
       <c r="AL16" t="s">
-        <v>961</v>
+        <v>1039</v>
       </c>
       <c r="AM16" t="s">
-        <v>987</v>
+        <v>1065</v>
       </c>
       <c r="AN16" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="AO16" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="AP16" t="s">
-        <v>988</v>
+        <v>1066</v>
       </c>
       <c r="AQ16" t="s">
-        <v>989</v>
+        <v>1067</v>
       </c>
       <c r="AR16" t="s">
         <v>334</v>
       </c>
       <c r="AS16" t="s">
-        <v>990</v>
+        <v>1068</v>
       </c>
       <c r="AT16" t="s">
-        <v>966</v>
+        <v>1044</v>
       </c>
       <c r="AU16" t="s">
-        <v>991</v>
+        <v>1069</v>
       </c>
       <c r="AV16" t="s">
-        <v>992</v>
+        <v>1070</v>
       </c>
       <c r="AW16" t="s">
         <v>210</v>
       </c>
       <c r="AX16" t="s">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="AY16" t="s">
         <v>641</v>
@@ -7314,13 +8041,13 @@
         <v>6</v>
       </c>
       <c r="BA16" t="s">
-        <v>994</v>
+        <v>1072</v>
       </c>
       <c r="BB16" t="s">
-        <v>995</v>
+        <v>1073</v>
       </c>
       <c r="BC16" t="s">
-        <v>996</v>
+        <v>1074</v>
       </c>
       <c r="BD16" t="s">
         <v>291</v>
@@ -7329,87 +8056,413 @@
         <v>339</v>
       </c>
       <c r="BF16" t="s">
-        <v>997</v>
+        <v>1075</v>
       </c>
       <c r="BG16" t="s">
-        <v>998</v>
+        <v>1076</v>
       </c>
       <c r="BH16" t="s">
-        <v>999</v>
+        <v>1077</v>
       </c>
       <c r="BI16" t="s">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1001</v>
+        <v>1079</v>
       </c>
       <c r="BK16" t="s">
-        <v>1002</v>
+        <v>1080</v>
       </c>
       <c r="BL16" t="s">
-        <v>1003</v>
+        <v>1081</v>
       </c>
       <c r="BM16" t="s">
-        <v>1004</v>
+        <v>1082</v>
       </c>
       <c r="BN16" t="s">
-        <v>1005</v>
+        <v>1083</v>
       </c>
       <c r="BO16" t="s">
-        <v>1006</v>
+        <v>1084</v>
       </c>
       <c r="BP16" t="s">
         <v>375</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1007</v>
+        <v>1085</v>
       </c>
       <c r="BR16" t="s">
-        <v>1008</v>
+        <v>1086</v>
       </c>
       <c r="BS16" t="s">
-        <v>1009</v>
+        <v>1087</v>
       </c>
       <c r="BT16" t="s">
-        <v>1010</v>
+        <v>1088</v>
       </c>
       <c r="BU16" t="s">
         <v>339</v>
       </c>
       <c r="BV16" t="s">
-        <v>1011</v>
+        <v>1089</v>
       </c>
       <c r="BW16" t="s">
-        <v>1012</v>
+        <v>1090</v>
       </c>
       <c r="BX16" t="s">
-        <v>1013</v>
+        <v>1091</v>
       </c>
       <c r="BY16" t="s">
-        <v>1008</v>
+        <v>1086</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1010</v>
+        <v>1088</v>
       </c>
       <c r="CA16" t="s">
-        <v>1014</v>
+        <v>1092</v>
       </c>
       <c r="CB16" t="s">
-        <v>1015</v>
+        <v>1093</v>
       </c>
       <c r="CC16" t="s">
-        <v>1016</v>
+        <v>1094</v>
       </c>
       <c r="CD16" t="s">
-        <v>1017</v>
+        <v>1095</v>
       </c>
       <c r="CE16" t="s">
-        <v>1018</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:106">
+      <c r="A17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>790</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S17" t="s">
+        <v>555</v>
+      </c>
+      <c r="T17" t="s">
+        <v>641</v>
+      </c>
+      <c r="U17" t="s">
+        <v>634</v>
+      </c>
+      <c r="V17" t="s">
+        <v>642</v>
+      </c>
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>987</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>240</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>644</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>727</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A10:$XFD10">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A13:$XFD13">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A17:$XFD17">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
